--- a/point_distribution.xlsx
+++ b/point_distribution.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/807a370d035f9a6c/Documents/Projects/tracker/roundnet_season_tracker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/807a370d035f9a6c/Documents/Projects/tracker_copy/roundnet_season_tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_9AA1F82F942A4F177F224B71F5645A2FBB4F4584" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD1D62D-661A-404C-A628-D65C26CBDF98}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_9AA1F82F942A4F177F224B71F5645A2FBB4F4584" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7D9CD13-7C37-4645-8194-C37C70159AF6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <t>Major</t>
   </si>
   <si>
-    <t>Championship (Pro)</t>
+    <t>Championship</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
